--- a/河北/导入文件/2023-08/月内代理购电/交易场次名称（月内代理购电交易）-2023-02-01-2023-02-28.xlsx
+++ b/河北/导入文件/2023-08/月内代理购电/交易场次名称（月内代理购电交易）-2023-02-01-2023-02-28.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9180"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <r>
       <rPr>
@@ -217,16 +217,25 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF606266"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>T4电网公司代理购交易的谷段:01:00-06:00,12:00-15:00</t>
-    </r>
+    <t>T3电网公司代理购交易的高峰:16:00-17:00,19:00-24:00</t>
+  </si>
+  <si>
+    <t>T4电网公司代理购交易的高峰:16:00-17:00,19:00-24:00</t>
+  </si>
+  <si>
+    <t>T5电网公司代理购交易的高峰:16:00-17:00,19:00-24:00</t>
+  </si>
+  <si>
+    <t>T6电网公司代理购交易的高峰:16:00-17:00,19:00-24:00</t>
+  </si>
+  <si>
+    <t>T7电网公司代理购交易的高峰:16:00-17:00,19:00-24:00</t>
+  </si>
+  <si>
+    <t>T8电网公司代理购交易的平段:00:00-01:00,06:00-12:00,15:00-16:00</t>
+  </si>
+  <si>
+    <t>T9电网公司代理购交易的谷段:01:00-06:00,12:00-15:00</t>
   </si>
   <si>
     <r>
@@ -268,7 +277,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -299,6 +308,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -315,6 +352,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -356,21 +401,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -416,28 +446,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -470,13 +479,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -494,24 +545,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -530,18 +593,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -554,36 +605,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -602,24 +629,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -633,12 +648,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -675,6 +684,21 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -708,21 +732,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -781,152 +790,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -947,9 +956,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -966,52 +972,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1274,13 +1280,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <cols>
+    <col min="2" max="2" width="23.4444444444444" customWidth="1"/>
+    <col min="3" max="3" width="51.2222222222222" customWidth="1"/>
+    <col min="4" max="4" width="63.8888888888889" customWidth="1"/>
+    <col min="5" max="5" width="10.6666666666667"/>
+  </cols>
   <sheetData>
     <row r="1" ht="43.2" spans="1:8">
       <c r="A1" s="1" t="s">
@@ -1439,13 +1451,13 @@
         <v>9</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E7" s="5">
-        <v>562</v>
+        <v>39668</v>
       </c>
       <c r="F7" s="5">
-        <v>892.05</v>
+        <v>743.38</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>11</v>
@@ -1463,13 +1475,13 @@
         <v>9</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E8" s="5">
-        <v>39668</v>
+        <v>8898.202</v>
       </c>
       <c r="F8" s="5">
-        <v>743.38</v>
+        <v>780.71</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>11</v>
@@ -1487,13 +1499,13 @@
         <v>9</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E9" s="5">
-        <v>41578</v>
+        <v>6080.408</v>
       </c>
       <c r="F9" s="5">
-        <v>437.28</v>
+        <v>660.96</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>11</v>
@@ -1511,13 +1523,13 @@
         <v>9</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E10" s="5">
-        <v>1658</v>
+        <v>3183.715</v>
       </c>
       <c r="F10" s="5">
-        <v>437.28</v>
+        <v>333.33</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>11</v>
@@ -1535,13 +1547,13 @@
         <v>9</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E11" s="5">
-        <v>18118</v>
+        <v>7954.133</v>
       </c>
       <c r="F11" s="5">
-        <v>131.18</v>
+        <v>111.8</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>11</v>
@@ -1553,19 +1565,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E12" s="5">
-        <v>562</v>
+        <v>2922.095</v>
       </c>
       <c r="F12" s="5">
-        <v>892.05</v>
+        <v>602.91</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>11</v>
@@ -1577,16 +1589,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E13" s="5">
-        <v>1658</v>
+        <v>41578</v>
       </c>
       <c r="F13" s="5">
         <v>437.28</v>
@@ -1601,19 +1613,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E14" s="5">
-        <v>559</v>
+        <v>18118</v>
       </c>
       <c r="F14" s="5">
-        <v>892.05</v>
+        <v>131.18</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>11</v>
@@ -1625,19 +1637,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E15" s="5">
-        <v>1656</v>
+        <v>562</v>
       </c>
       <c r="F15" s="5">
-        <v>437.28</v>
+        <v>892.05</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>11</v>
@@ -1649,48 +1661,120 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="5">
+        <v>1658</v>
+      </c>
+      <c r="F16" s="5">
+        <v>437.28</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="5">
+        <v>559</v>
+      </c>
+      <c r="F17" s="5">
+        <v>892.05</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="5">
+        <v>1656</v>
+      </c>
+      <c r="F18" s="5">
+        <v>437.28</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="5">
+        <v>562</v>
+      </c>
+      <c r="F19" s="5">
+        <v>892.05</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="5">
-        <v>562</v>
-      </c>
-      <c r="F16" s="5">
-        <v>892.05</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" s="6"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="7">
-        <v>16</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="9" t="s">
+      <c r="B20" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E20" s="9">
         <v>1658</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F20" s="9">
         <v>437.28</v>
       </c>
-      <c r="G17" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H17" s="11"/>
+      <c r="G20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
